--- a/Allocation/logins.xlsx
+++ b/Allocation/logins.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Assignments" sheetId="2" r:id="rId2"/>
+    <sheet name="README FIRST" sheetId="3" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId2"/>
+    <sheet name="Assignments" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +66,141 @@
   </si>
   <si>
     <t>Date (YYYYMMDD)</t>
+  </si>
+  <si>
+    <t>Enumerator</t>
+  </si>
+  <si>
+    <t>ENUMERATOR</t>
+  </si>
+  <si>
+    <t>Next Level Supervisor</t>
+  </si>
+  <si>
+    <t>MBEST</t>
+  </si>
+  <si>
+    <t>KRUSSELL</t>
+  </si>
+  <si>
+    <t>CSEALY</t>
+  </si>
+  <si>
+    <t>RMAYERS</t>
+  </si>
+  <si>
+    <t>GHUSBANDS</t>
+  </si>
+  <si>
+    <t>AWALCOTT</t>
+  </si>
+  <si>
+    <t>JCUMBERBATCH</t>
+  </si>
+  <si>
+    <t>FAGARD</t>
+  </si>
+  <si>
+    <t>VTAYLOR</t>
+  </si>
+  <si>
+    <t>JWILLIAMS</t>
+  </si>
+  <si>
+    <t>LWILLIAMS</t>
+  </si>
+  <si>
+    <t>CQUINTYNE</t>
+  </si>
+  <si>
+    <t>KBONAS</t>
+  </si>
+  <si>
+    <t>HCHASE</t>
+  </si>
+  <si>
+    <t>MSMALL</t>
+  </si>
+  <si>
+    <t>WDAVIS</t>
+  </si>
+  <si>
+    <t>SBLACKETT</t>
+  </si>
+  <si>
+    <t>JHUSBANDS</t>
+  </si>
+  <si>
+    <t>SHURDLE</t>
+  </si>
+  <si>
+    <t>GSHEPHERD</t>
+  </si>
+  <si>
+    <t>Marcia Best</t>
+  </si>
+  <si>
+    <t>Karin Russell</t>
+  </si>
+  <si>
+    <t>Carol-Ann Sealy</t>
+  </si>
+  <si>
+    <t>Ryan Mayers</t>
+  </si>
+  <si>
+    <t>Sylvia Griffith</t>
+  </si>
+  <si>
+    <t>George Husbands</t>
+  </si>
+  <si>
+    <t>Antonia Walcott</t>
+  </si>
+  <si>
+    <t>Jeffrey Cumberbatch</t>
+  </si>
+  <si>
+    <t>Fatuma Agard</t>
+  </si>
+  <si>
+    <t>Valerie Taylor</t>
+  </si>
+  <si>
+    <t>Janet Williams</t>
+  </si>
+  <si>
+    <t>Lynette Williams</t>
+  </si>
+  <si>
+    <t>Charles Quintyne</t>
+  </si>
+  <si>
+    <t>Kellyanne Bonas</t>
+  </si>
+  <si>
+    <t>Sherry-Ann Blackett</t>
+  </si>
+  <si>
+    <t>Julietta Husbands</t>
+  </si>
+  <si>
+    <t>Stacia Hurdle</t>
+  </si>
+  <si>
+    <t>Gladwyn Shepherd</t>
+  </si>
+  <si>
+    <t>Harold Chase</t>
+  </si>
+  <si>
+    <t>Mervin Small</t>
+  </si>
+  <si>
+    <t>Wayne Davis</t>
+  </si>
+  <si>
+    <t>SGRIFFITH</t>
   </si>
 </sst>
 </file>
@@ -118,6 +254,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266699" y="152400"/>
+          <a:ext cx="11306175" cy="4857750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Instructions:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>In the Users tab, List the ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> number, Name, Username, Role and Next Level Supervisor ID. Please always sort all entries by the ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* ID number - Should be a 3 or 4 digit number that uniquely identifies the user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* Username - Should be in all caps and follow the format, FIRSTNAME.LASTNAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* Role - Should be a 1-digit number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>	1 = Enumerator</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>	2 = Supervisor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>	3 = Senior Supervisor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>	4 = Zone Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* Next Level Supervisor - should be the ID number of the user's immediate supervisor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>In the Assignments tab, List the ID number, ED, Parish and date assigned. Please always sort all entries by the ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* ID number - must be an ID number that was listed in the Users tab</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* ED - Should be a valid ED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* Parish - Should be a parish that corresponds to the ED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>* Date - Should be the date that the person was assigned to the ED. Must be in the format YYYYMMDD sithout any dividers( no / or -)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>After all assignments have been made, run users.pff. To convert to CSPro format. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +705,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,76 +747,435 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>3000</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3000</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D27">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E27">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,47 +1199,568 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>20200515</v>
+        <v>20190506</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>20200615</v>
+        <v>20190506</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>292</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>369</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>274</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>435</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>386</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>480</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>224</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>358</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>237</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>323</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>399</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>77</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>570</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>199</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>513</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>174</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>493</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>533</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>231</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>261</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>310</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>247</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>548</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>20190506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>100</v>
       </c>
-      <c r="B4">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>20200515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>20200615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>20200101</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>123</v>
+      </c>
+      <c r="B41">
+        <v>512</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>20200505</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:D41">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>